--- a/resources/data/ApplicantList.xlsx
+++ b/resources/data/ApplicantList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>newpass</t>
   </si>
 </sst>
 </file>
@@ -975,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
